--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G168" s="2" t="b">
@@ -9169,11 +9169,11 @@
         </is>
       </c>
       <c r="I168" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K168" s="2" t="b">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9221,11 +9221,11 @@
         </is>
       </c>
       <c r="I169" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K169" s="2" t="b">
@@ -18205,187 +18205,187 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B345" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem2/42/word_level_predictions_42.xlsx
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,468 +2894,468 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9157,7 +9157,7 @@
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G168" s="2" t="b">
@@ -9169,11 +9169,11 @@
         </is>
       </c>
       <c r="I168" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K168" s="2" t="b">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L168" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9221,11 +9221,11 @@
         </is>
       </c>
       <c r="I169" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K169" s="2" t="b">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G342" t="b">
@@ -18229,163 +18229,163 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
